--- a/all_data_headers.xlsx
+++ b/all_data_headers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephkananth/Downloads/bubbles_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47286672-F6C2-024B-A4DF-E124178B6AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AC8C1E-9713-694E-B161-79E911128F76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15600" xr2:uid="{E3F243E7-B8D7-074D-A416-5C01FA75FF7D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>first_name</t>
   </si>
@@ -178,6 +178,51 @@
   </si>
   <si>
     <t>pr_support_diff</t>
+  </si>
+  <si>
+    <t>avg_out_know_2017</t>
+  </si>
+  <si>
+    <t>avg_out_like_2017</t>
+  </si>
+  <si>
+    <t>avg_out_contact_2017</t>
+  </si>
+  <si>
+    <t>avg_out_trust_2017</t>
+  </si>
+  <si>
+    <t>avg_out_support_2017</t>
+  </si>
+  <si>
+    <t>avg_out_know_2019</t>
+  </si>
+  <si>
+    <t>avg_out_like_2019</t>
+  </si>
+  <si>
+    <t>avg_out_contact_2019</t>
+  </si>
+  <si>
+    <t>avg_out_trust_2019</t>
+  </si>
+  <si>
+    <t>avg_out_support_2019</t>
+  </si>
+  <si>
+    <t>avg_out_know_diff</t>
+  </si>
+  <si>
+    <t>avg_out_like_diff</t>
+  </si>
+  <si>
+    <t>avg_out_contact_diff</t>
+  </si>
+  <si>
+    <t>avg_out_trust_diff</t>
+  </si>
+  <si>
+    <t>avg_out_support_diff</t>
   </si>
 </sst>
 </file>
@@ -207,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,13 +275,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -553,15 +612,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7020E7F7-13FA-F446-B991-494B614786CB}">
-  <dimension ref="A1:AW1"/>
+  <dimension ref="A1:BL1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,6 +767,51 @@
       </c>
       <c r="AW1" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
